--- a/server/files/RDF_SMS_Template.xlsx
+++ b/server/files/RDF_SMS_Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\New User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\New User\Desktop\Project\Exercises\rdfstoremanagement\server\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25935" windowHeight="8580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25935" windowHeight="8580" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <sheet name="MajorEstablishment" sheetId="2" r:id="rId4"/>
     <sheet name="Competitors" sheetId="6" r:id="rId5"/>
     <sheet name="Community" sheetId="7" r:id="rId6"/>
-    <sheet name="revenue" sheetId="4" r:id="rId7"/>
+    <sheet name="SalesRevenue" sheetId="4" r:id="rId7"/>
+    <sheet name="SalesStat" sheetId="8" r:id="rId8"/>
+    <sheet name="DailySales" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="83">
   <si>
     <t>region</t>
   </si>
@@ -188,15 +190,6 @@
     <t>december</t>
   </si>
   <si>
-    <t>sales_revenue</t>
-  </si>
-  <si>
-    <t>daily_sales</t>
-  </si>
-  <si>
-    <t>sales_stats</t>
-  </si>
-  <si>
     <t>Walk-in</t>
   </si>
   <si>
@@ -276,13 +269,25 @@
   </si>
   <si>
     <t>F0041</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Last Year</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,26 +303,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -332,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -345,8 +337,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -664,7 +654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -724,7 +714,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -860,7 +850,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,37 +860,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -927,37 +917,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -978,17 +968,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1011,37 +1001,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1051,410 +1041,761 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2017</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="3">
+        <v>6685506</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4400106</v>
+      </c>
+      <c r="E2" s="3">
+        <v>6352070</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2344956</v>
+      </c>
+      <c r="G2" s="3">
+        <v>9869591</v>
+      </c>
+      <c r="H2" s="3">
+        <v>6128972</v>
+      </c>
+      <c r="I2" s="3">
+        <v>3575025</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1108674</v>
+      </c>
+      <c r="K2" s="3">
+        <v>8386111</v>
+      </c>
+      <c r="L2" s="3">
+        <v>9695116</v>
+      </c>
+      <c r="M2" s="3">
+        <v>3858868</v>
+      </c>
+      <c r="N2" s="3">
+        <v>7853175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="3">
+        <v>8124914</v>
+      </c>
+      <c r="D3" s="3">
+        <v>6603456</v>
+      </c>
+      <c r="E3" s="3">
+        <v>8653694</v>
+      </c>
+      <c r="F3" s="3">
+        <v>6942147</v>
+      </c>
+      <c r="G3" s="3">
+        <v>8066948</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2066937</v>
+      </c>
+      <c r="I3" s="3">
+        <v>7647633</v>
+      </c>
+      <c r="J3" s="3">
+        <v>7152448</v>
+      </c>
+      <c r="K3" s="3">
+        <v>5700789</v>
+      </c>
+      <c r="L3" s="3">
+        <v>5241282</v>
+      </c>
+      <c r="M3" s="3">
+        <v>2577033</v>
+      </c>
+      <c r="N3" s="3">
+        <v>6661932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6434327</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2386681</v>
+      </c>
+      <c r="E4" s="3">
+        <v>9314321</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5733710</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2656709</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1696790</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2455085</v>
+      </c>
+      <c r="J4" s="3">
+        <v>6142929</v>
+      </c>
+      <c r="K4" s="3">
+        <v>9978806</v>
+      </c>
+      <c r="L4" s="3">
+        <v>5165305</v>
+      </c>
+      <c r="M4" s="3">
+        <v>5316098</v>
+      </c>
+      <c r="N4" s="3">
+        <v>4145234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M2" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M3" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M4" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2016</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="L3" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="M3" s="3">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2017</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="M4" s="3">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2018</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="M5" s="3">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="3">
-        <v>10000</v>
-      </c>
-      <c r="C9" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D9" s="3">
-        <v>10000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>10000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>10000</v>
-      </c>
-      <c r="K9" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L9" s="3">
-        <v>10000</v>
-      </c>
-      <c r="M9" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>42370</v>
+      </c>
+      <c r="B2">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <f>B2+C2</f>
+        <v>35</v>
+      </c>
+      <c r="E2" s="6">
+        <f>(B2/D2)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F2" s="6">
+        <f>C2/D2</f>
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="G2" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="3">
-        <v>10000</v>
-      </c>
-      <c r="C10" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D10" s="3">
-        <v>10000</v>
-      </c>
-      <c r="E10" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F10" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>10000</v>
-      </c>
-      <c r="I10" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J10" s="3">
-        <v>10000</v>
-      </c>
-      <c r="K10" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L10" s="3">
-        <v>10000</v>
-      </c>
-      <c r="M10" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="3">
-        <v>10000</v>
-      </c>
-      <c r="C11" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D11" s="3">
-        <v>10000</v>
-      </c>
-      <c r="E11" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F11" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G11" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H11" s="3">
-        <v>10000</v>
-      </c>
-      <c r="I11" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J11" s="3">
-        <v>10000</v>
-      </c>
-      <c r="K11" s="3">
-        <v>10000</v>
-      </c>
-      <c r="L11" s="3">
-        <v>10000</v>
-      </c>
-      <c r="M11" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>42371</v>
+      </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <f>B3+C3</f>
+        <v>35</v>
+      </c>
+      <c r="E3" s="6">
+        <f>(B3/D3)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F3" s="6">
+        <f>C3/D3</f>
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>42372</v>
+      </c>
+      <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <f>B4+C4</f>
+        <v>35</v>
+      </c>
+      <c r="E4" s="6">
+        <f>(B4/D4)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F4" s="6">
+        <f>C4/D4</f>
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>42373</v>
+      </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <f>B5+C5</f>
+        <v>35</v>
+      </c>
+      <c r="E5" s="6">
+        <f>(B5/D5)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F5" s="6">
+        <f>C5/D5</f>
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>42374</v>
+      </c>
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <f>B6+C6</f>
+        <v>35</v>
+      </c>
+      <c r="E6" s="6">
+        <f>(B6/D6)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F6" s="6">
+        <f>C6/D6</f>
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>42375</v>
+      </c>
+      <c r="B7">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <f>B7+C7</f>
+        <v>35</v>
+      </c>
+      <c r="E7" s="6">
+        <f>(B7/D7)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F7" s="6">
+        <f>C7/D7</f>
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>42376</v>
+      </c>
+      <c r="B8">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <f>B8+C8</f>
+        <v>35</v>
+      </c>
+      <c r="E8" s="6">
+        <f>(B8/D8)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F8" s="6">
+        <f>C8/D8</f>
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>42377</v>
+      </c>
+      <c r="B9">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <f>B9+C9</f>
+        <v>35</v>
+      </c>
+      <c r="E9" s="6">
+        <f>(B9/D9)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F9" s="6">
+        <f>C9/D9</f>
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>42378</v>
+      </c>
+      <c r="B10">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <f>B10+C10</f>
+        <v>35</v>
+      </c>
+      <c r="E10" s="6">
+        <f>(B10/D10)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F10" s="6">
+        <f>C10/D10</f>
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>42379</v>
+      </c>
+      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <f>B11+C11</f>
+        <v>35</v>
+      </c>
+      <c r="E11" s="6">
+        <f>(B11/D11)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F11" s="6">
+        <f>C11/D11</f>
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>42380</v>
+      </c>
+      <c r="B12">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <f>B12+C12</f>
+        <v>35</v>
+      </c>
+      <c r="E12" s="6">
+        <f>(B12/D12)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F12" s="6">
+        <f>C12/D12</f>
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>42381</v>
+      </c>
+      <c r="B13">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <f>B13+C13</f>
+        <v>35</v>
+      </c>
+      <c r="E13" s="6">
+        <f>(B13/D13)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F13" s="6">
+        <f>C13/D13</f>
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>42382</v>
+      </c>
+      <c r="B14">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <f>B14+C14</f>
+        <v>35</v>
+      </c>
+      <c r="E14" s="6">
+        <f>(B14/D14)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F14" s="6">
+        <f>C14/D14</f>
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>42370</v>
+        <v>42383</v>
       </c>
       <c r="B15">
         <v>23</v>
@@ -1466,21 +1807,21 @@
         <f>B15+C15</f>
         <v>35</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <f>(B15/D15)</f>
         <v>0.65714285714285714</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="6">
         <f>C15/D15</f>
         <v>0.34285714285714286</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>42371</v>
+        <v>42384</v>
       </c>
       <c r="B16">
         <v>23</v>
@@ -1489,24 +1830,24 @@
         <v>12</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:D54" si="0">B16+C16</f>
-        <v>35</v>
-      </c>
-      <c r="E16" s="8">
-        <f t="shared" ref="E16:E54" si="1">(B16/D16)</f>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" ref="F16:F54" si="2">C16/D16</f>
+        <f>B16+C16</f>
+        <v>35</v>
+      </c>
+      <c r="E16" s="6">
+        <f>(B16/D16)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F16" s="6">
+        <f>C16/D16</f>
         <v>0.34285714285714286</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>42372</v>
+        <v>42385</v>
       </c>
       <c r="B17">
         <v>23</v>
@@ -1515,24 +1856,24 @@
         <v>12</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E17" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" si="2"/>
+        <f>B17+C17</f>
+        <v>35</v>
+      </c>
+      <c r="E17" s="6">
+        <f>(B17/D17)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F17" s="6">
+        <f>C17/D17</f>
         <v>0.34285714285714286</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>42373</v>
+        <v>42386</v>
       </c>
       <c r="B18">
         <v>23</v>
@@ -1541,24 +1882,24 @@
         <v>12</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E18" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" si="2"/>
+        <f>B18+C18</f>
+        <v>35</v>
+      </c>
+      <c r="E18" s="6">
+        <f>(B18/D18)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F18" s="6">
+        <f>C18/D18</f>
         <v>0.34285714285714286</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>42374</v>
+        <v>42387</v>
       </c>
       <c r="B19">
         <v>23</v>
@@ -1567,24 +1908,24 @@
         <v>12</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E19" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" si="2"/>
+        <f>B19+C19</f>
+        <v>35</v>
+      </c>
+      <c r="E19" s="6">
+        <f>(B19/D19)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F19" s="6">
+        <f>C19/D19</f>
         <v>0.34285714285714286</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>42375</v>
+        <v>42388</v>
       </c>
       <c r="B20">
         <v>23</v>
@@ -1593,24 +1934,24 @@
         <v>12</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E20" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" si="2"/>
+        <f>B20+C20</f>
+        <v>35</v>
+      </c>
+      <c r="E20" s="6">
+        <f>(B20/D20)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F20" s="6">
+        <f>C20/D20</f>
         <v>0.34285714285714286</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>42376</v>
+        <v>42389</v>
       </c>
       <c r="B21">
         <v>23</v>
@@ -1619,24 +1960,24 @@
         <v>12</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E21" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="2"/>
+        <f>B21+C21</f>
+        <v>35</v>
+      </c>
+      <c r="E21" s="6">
+        <f>(B21/D21)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F21" s="6">
+        <f>C21/D21</f>
         <v>0.34285714285714286</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>42377</v>
+        <v>42390</v>
       </c>
       <c r="B22">
         <v>23</v>
@@ -1645,24 +1986,24 @@
         <v>12</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E22" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" si="2"/>
+        <f>B22+C22</f>
+        <v>35</v>
+      </c>
+      <c r="E22" s="6">
+        <f>(B22/D22)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F22" s="6">
+        <f>C22/D22</f>
         <v>0.34285714285714286</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>42378</v>
+        <v>42391</v>
       </c>
       <c r="B23">
         <v>23</v>
@@ -1671,24 +2012,24 @@
         <v>12</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E23" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F23" s="8">
-        <f t="shared" si="2"/>
+        <f>B23+C23</f>
+        <v>35</v>
+      </c>
+      <c r="E23" s="6">
+        <f>(B23/D23)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F23" s="6">
+        <f>C23/D23</f>
         <v>0.34285714285714286</v>
       </c>
       <c r="G23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>42379</v>
+        <v>42392</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -1697,24 +2038,24 @@
         <v>12</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E24" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F24" s="8">
-        <f t="shared" si="2"/>
+        <f>B24+C24</f>
+        <v>35</v>
+      </c>
+      <c r="E24" s="6">
+        <f>(B24/D24)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F24" s="6">
+        <f>C24/D24</f>
         <v>0.34285714285714286</v>
       </c>
       <c r="G24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>42380</v>
+        <v>42393</v>
       </c>
       <c r="B25">
         <v>23</v>
@@ -1723,24 +2064,24 @@
         <v>12</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E25" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F25" s="8">
-        <f t="shared" si="2"/>
+        <f>B25+C25</f>
+        <v>35</v>
+      </c>
+      <c r="E25" s="6">
+        <f>(B25/D25)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F25" s="6">
+        <f>C25/D25</f>
         <v>0.34285714285714286</v>
       </c>
       <c r="G25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>42381</v>
+        <v>42394</v>
       </c>
       <c r="B26">
         <v>23</v>
@@ -1749,24 +2090,24 @@
         <v>12</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E26" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F26" s="8">
-        <f t="shared" si="2"/>
+        <f>B26+C26</f>
+        <v>35</v>
+      </c>
+      <c r="E26" s="6">
+        <f>(B26/D26)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F26" s="6">
+        <f>C26/D26</f>
         <v>0.34285714285714286</v>
       </c>
       <c r="G26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>42382</v>
+        <v>42395</v>
       </c>
       <c r="B27">
         <v>23</v>
@@ -1775,24 +2116,24 @@
         <v>12</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E27" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F27" s="8">
-        <f t="shared" si="2"/>
+        <f>B27+C27</f>
+        <v>35</v>
+      </c>
+      <c r="E27" s="6">
+        <f>(B27/D27)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F27" s="6">
+        <f>C27/D27</f>
         <v>0.34285714285714286</v>
       </c>
       <c r="G27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>42383</v>
+        <v>42396</v>
       </c>
       <c r="B28">
         <v>23</v>
@@ -1801,24 +2142,24 @@
         <v>12</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E28" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F28" s="8">
-        <f t="shared" si="2"/>
+        <f>B28+C28</f>
+        <v>35</v>
+      </c>
+      <c r="E28" s="6">
+        <f>(B28/D28)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F28" s="6">
+        <f>C28/D28</f>
         <v>0.34285714285714286</v>
       </c>
       <c r="G28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>42384</v>
+        <v>42397</v>
       </c>
       <c r="B29">
         <v>23</v>
@@ -1827,24 +2168,24 @@
         <v>12</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E29" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F29" s="8">
-        <f t="shared" si="2"/>
+        <f>B29+C29</f>
+        <v>35</v>
+      </c>
+      <c r="E29" s="6">
+        <f>(B29/D29)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F29" s="6">
+        <f>C29/D29</f>
         <v>0.34285714285714286</v>
       </c>
       <c r="G29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>42385</v>
+        <v>42398</v>
       </c>
       <c r="B30">
         <v>23</v>
@@ -1853,24 +2194,24 @@
         <v>12</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E30" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F30" s="8">
-        <f t="shared" si="2"/>
+        <f>B30+C30</f>
+        <v>35</v>
+      </c>
+      <c r="E30" s="6">
+        <f>(B30/D30)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F30" s="6">
+        <f>C30/D30</f>
         <v>0.34285714285714286</v>
       </c>
       <c r="G30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>42386</v>
+        <v>42399</v>
       </c>
       <c r="B31">
         <v>23</v>
@@ -1879,24 +2220,24 @@
         <v>12</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E31" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F31" s="8">
-        <f t="shared" si="2"/>
+        <f>B31+C31</f>
+        <v>35</v>
+      </c>
+      <c r="E31" s="6">
+        <f>(B31/D31)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F31" s="6">
+        <f>C31/D31</f>
         <v>0.34285714285714286</v>
       </c>
       <c r="G31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>42387</v>
+        <v>42400</v>
       </c>
       <c r="B32">
         <v>23</v>
@@ -1905,24 +2246,24 @@
         <v>12</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E32" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F32" s="8">
-        <f t="shared" si="2"/>
+        <f>B32+C32</f>
+        <v>35</v>
+      </c>
+      <c r="E32" s="6">
+        <f>(B32/D32)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F32" s="6">
+        <f>C32/D32</f>
         <v>0.34285714285714286</v>
       </c>
       <c r="G32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>42388</v>
+        <v>42401</v>
       </c>
       <c r="B33">
         <v>23</v>
@@ -1931,24 +2272,24 @@
         <v>12</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E33" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F33" s="8">
-        <f t="shared" si="2"/>
+        <f>B33+C33</f>
+        <v>35</v>
+      </c>
+      <c r="E33" s="6">
+        <f>(B33/D33)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F33" s="6">
+        <f>C33/D33</f>
         <v>0.34285714285714286</v>
       </c>
       <c r="G33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>42389</v>
+        <v>42402</v>
       </c>
       <c r="B34">
         <v>23</v>
@@ -1957,24 +2298,24 @@
         <v>12</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E34" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F34" s="8">
-        <f t="shared" si="2"/>
+        <f>B34+C34</f>
+        <v>35</v>
+      </c>
+      <c r="E34" s="6">
+        <f>(B34/D34)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F34" s="6">
+        <f>C34/D34</f>
         <v>0.34285714285714286</v>
       </c>
       <c r="G34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>42390</v>
+        <v>42403</v>
       </c>
       <c r="B35">
         <v>23</v>
@@ -1983,24 +2324,24 @@
         <v>12</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E35" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F35" s="8">
-        <f t="shared" si="2"/>
+        <f>B35+C35</f>
+        <v>35</v>
+      </c>
+      <c r="E35" s="6">
+        <f>(B35/D35)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F35" s="6">
+        <f>C35/D35</f>
         <v>0.34285714285714286</v>
       </c>
       <c r="G35" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>42391</v>
+        <v>42404</v>
       </c>
       <c r="B36">
         <v>23</v>
@@ -2009,24 +2350,24 @@
         <v>12</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E36" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F36" s="8">
-        <f t="shared" si="2"/>
+        <f>B36+C36</f>
+        <v>35</v>
+      </c>
+      <c r="E36" s="6">
+        <f>(B36/D36)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F36" s="6">
+        <f>C36/D36</f>
         <v>0.34285714285714286</v>
       </c>
       <c r="G36" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>42392</v>
+        <v>42405</v>
       </c>
       <c r="B37">
         <v>23</v>
@@ -2035,24 +2376,24 @@
         <v>12</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E37" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F37" s="8">
-        <f t="shared" si="2"/>
+        <f>B37+C37</f>
+        <v>35</v>
+      </c>
+      <c r="E37" s="6">
+        <f>(B37/D37)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F37" s="6">
+        <f>C37/D37</f>
         <v>0.34285714285714286</v>
       </c>
       <c r="G37" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>42393</v>
+        <v>42406</v>
       </c>
       <c r="B38">
         <v>23</v>
@@ -2061,24 +2402,24 @@
         <v>12</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E38" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F38" s="8">
-        <f t="shared" si="2"/>
+        <f>B38+C38</f>
+        <v>35</v>
+      </c>
+      <c r="E38" s="6">
+        <f>(B38/D38)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F38" s="6">
+        <f>C38/D38</f>
         <v>0.34285714285714286</v>
       </c>
       <c r="G38" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>42394</v>
+        <v>42407</v>
       </c>
       <c r="B39">
         <v>23</v>
@@ -2087,24 +2428,24 @@
         <v>12</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E39" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F39" s="8">
-        <f t="shared" si="2"/>
+        <f>B39+C39</f>
+        <v>35</v>
+      </c>
+      <c r="E39" s="6">
+        <f>(B39/D39)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F39" s="6">
+        <f>C39/D39</f>
         <v>0.34285714285714286</v>
       </c>
       <c r="G39" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>42395</v>
+        <v>42408</v>
       </c>
       <c r="B40">
         <v>23</v>
@@ -2113,24 +2454,24 @@
         <v>12</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E40" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F40" s="8">
-        <f t="shared" si="2"/>
+        <f>B40+C40</f>
+        <v>35</v>
+      </c>
+      <c r="E40" s="6">
+        <f>(B40/D40)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F40" s="6">
+        <f>C40/D40</f>
         <v>0.34285714285714286</v>
       </c>
       <c r="G40" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>42396</v>
+        <v>42409</v>
       </c>
       <c r="B41">
         <v>23</v>
@@ -2139,357 +2480,19 @@
         <v>12</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E41" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F41" s="8">
-        <f t="shared" si="2"/>
+        <f>B41+C41</f>
+        <v>35</v>
+      </c>
+      <c r="E41" s="6">
+        <f>(B41/D41)</f>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="F41" s="6">
+        <f>C41/D41</f>
         <v>0.34285714285714286</v>
       </c>
       <c r="G41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>42397</v>
-      </c>
-      <c r="B42">
-        <v>23</v>
-      </c>
-      <c r="C42">
-        <v>12</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E42" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F42" s="8">
-        <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
-      </c>
-      <c r="G42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>42398</v>
-      </c>
-      <c r="B43">
-        <v>23</v>
-      </c>
-      <c r="C43">
-        <v>12</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E43" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F43" s="8">
-        <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
-      </c>
-      <c r="G43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>42399</v>
-      </c>
-      <c r="B44">
-        <v>23</v>
-      </c>
-      <c r="C44">
-        <v>12</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E44" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F44" s="8">
-        <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
-      </c>
-      <c r="G44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>42400</v>
-      </c>
-      <c r="B45">
-        <v>23</v>
-      </c>
-      <c r="C45">
-        <v>12</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E45" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F45" s="8">
-        <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
-      </c>
-      <c r="G45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>42401</v>
-      </c>
-      <c r="B46">
-        <v>23</v>
-      </c>
-      <c r="C46">
-        <v>12</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E46" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F46" s="8">
-        <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
-      </c>
-      <c r="G46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>42402</v>
-      </c>
-      <c r="B47">
-        <v>23</v>
-      </c>
-      <c r="C47">
-        <v>12</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E47" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F47" s="8">
-        <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
-      </c>
-      <c r="G47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>42403</v>
-      </c>
-      <c r="B48">
-        <v>23</v>
-      </c>
-      <c r="C48">
-        <v>12</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E48" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F48" s="8">
-        <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
-      </c>
-      <c r="G48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>42404</v>
-      </c>
-      <c r="B49">
-        <v>23</v>
-      </c>
-      <c r="C49">
-        <v>12</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E49" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F49" s="8">
-        <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
-      </c>
-      <c r="G49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>42405</v>
-      </c>
-      <c r="B50">
-        <v>23</v>
-      </c>
-      <c r="C50">
-        <v>12</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E50" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F50" s="8">
-        <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
-      </c>
-      <c r="G50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>42406</v>
-      </c>
-      <c r="B51">
-        <v>23</v>
-      </c>
-      <c r="C51">
-        <v>12</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E51" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F51" s="8">
-        <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
-      </c>
-      <c r="G51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>42407</v>
-      </c>
-      <c r="B52">
-        <v>23</v>
-      </c>
-      <c r="C52">
-        <v>12</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E52" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F52" s="8">
-        <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
-      </c>
-      <c r="G52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>42408</v>
-      </c>
-      <c r="B53">
-        <v>23</v>
-      </c>
-      <c r="C53">
-        <v>12</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E53" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F53" s="8">
-        <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
-      </c>
-      <c r="G53" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>42409</v>
-      </c>
-      <c r="B54">
-        <v>23</v>
-      </c>
-      <c r="C54">
-        <v>12</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E54" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
-      </c>
-      <c r="F54" s="8">
-        <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
-      </c>
-      <c r="G54" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/server/files/RDF_SMS_Template.xlsx
+++ b/server/files/RDF_SMS_Template.xlsx
@@ -1043,7 +1043,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1106,13 +1108,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B2" t="s">
         <v>79</v>
       </c>
       <c r="C2" s="3">
-        <v>6685506</v>
+        <v>2500000</v>
       </c>
       <c r="D2" s="3">
         <v>4400106</v>
@@ -1466,15 +1468,15 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <f>B2+C2</f>
+        <f t="shared" ref="D2:D41" si="0">B2+C2</f>
         <v>35</v>
       </c>
       <c r="E2" s="6">
-        <f>(B2/D2)</f>
+        <f t="shared" ref="E2:E41" si="1">(B2/D2)</f>
         <v>0.65714285714285714</v>
       </c>
       <c r="F2" s="6">
-        <f>C2/D2</f>
+        <f t="shared" ref="F2:F41" si="2">C2/D2</f>
         <v>0.34285714285714286</v>
       </c>
       <c r="G2" t="s">
@@ -1492,15 +1494,15 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <f>B3+C3</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E3" s="6">
-        <f>(B3/D3)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F3" s="6">
-        <f>C3/D3</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G3" t="s">
@@ -1518,15 +1520,15 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <f>B4+C4</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E4" s="6">
-        <f>(B4/D4)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F4" s="6">
-        <f>C4/D4</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G4" t="s">
@@ -1544,15 +1546,15 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <f>B5+C5</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E5" s="6">
-        <f>(B5/D5)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F5" s="6">
-        <f>C5/D5</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G5" t="s">
@@ -1570,15 +1572,15 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <f>B6+C6</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E6" s="6">
-        <f>(B6/D6)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F6" s="6">
-        <f>C6/D6</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G6" t="s">
@@ -1596,15 +1598,15 @@
         <v>12</v>
       </c>
       <c r="D7">
-        <f>B7+C7</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E7" s="6">
-        <f>(B7/D7)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F7" s="6">
-        <f>C7/D7</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G7" t="s">
@@ -1622,15 +1624,15 @@
         <v>12</v>
       </c>
       <c r="D8">
-        <f>B8+C8</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E8" s="6">
-        <f>(B8/D8)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F8" s="6">
-        <f>C8/D8</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G8" t="s">
@@ -1648,15 +1650,15 @@
         <v>12</v>
       </c>
       <c r="D9">
-        <f>B9+C9</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E9" s="6">
-        <f>(B9/D9)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F9" s="6">
-        <f>C9/D9</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G9" t="s">
@@ -1674,15 +1676,15 @@
         <v>12</v>
       </c>
       <c r="D10">
-        <f>B10+C10</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E10" s="6">
-        <f>(B10/D10)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F10" s="6">
-        <f>C10/D10</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G10" t="s">
@@ -1700,15 +1702,15 @@
         <v>12</v>
       </c>
       <c r="D11">
-        <f>B11+C11</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E11" s="6">
-        <f>(B11/D11)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F11" s="6">
-        <f>C11/D11</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G11" t="s">
@@ -1726,15 +1728,15 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <f>B12+C12</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E12" s="6">
-        <f>(B12/D12)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F12" s="6">
-        <f>C12/D12</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G12" t="s">
@@ -1752,15 +1754,15 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <f>B13+C13</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E13" s="6">
-        <f>(B13/D13)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F13" s="6">
-        <f>C13/D13</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G13" t="s">
@@ -1778,15 +1780,15 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <f>B14+C14</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E14" s="6">
-        <f>(B14/D14)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F14" s="6">
-        <f>C14/D14</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G14" t="s">
@@ -1804,15 +1806,15 @@
         <v>12</v>
       </c>
       <c r="D15">
-        <f>B15+C15</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E15" s="6">
-        <f>(B15/D15)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F15" s="6">
-        <f>C15/D15</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G15" t="s">
@@ -1830,15 +1832,15 @@
         <v>12</v>
       </c>
       <c r="D16">
-        <f>B16+C16</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E16" s="6">
-        <f>(B16/D16)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F16" s="6">
-        <f>C16/D16</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G16" t="s">
@@ -1856,15 +1858,15 @@
         <v>12</v>
       </c>
       <c r="D17">
-        <f>B17+C17</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E17" s="6">
-        <f>(B17/D17)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F17" s="6">
-        <f>C17/D17</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G17" t="s">
@@ -1882,15 +1884,15 @@
         <v>12</v>
       </c>
       <c r="D18">
-        <f>B18+C18</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E18" s="6">
-        <f>(B18/D18)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F18" s="6">
-        <f>C18/D18</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G18" t="s">
@@ -1908,15 +1910,15 @@
         <v>12</v>
       </c>
       <c r="D19">
-        <f>B19+C19</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E19" s="6">
-        <f>(B19/D19)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F19" s="6">
-        <f>C19/D19</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G19" t="s">
@@ -1934,15 +1936,15 @@
         <v>12</v>
       </c>
       <c r="D20">
-        <f>B20+C20</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E20" s="6">
-        <f>(B20/D20)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F20" s="6">
-        <f>C20/D20</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G20" t="s">
@@ -1960,15 +1962,15 @@
         <v>12</v>
       </c>
       <c r="D21">
-        <f>B21+C21</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E21" s="6">
-        <f>(B21/D21)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F21" s="6">
-        <f>C21/D21</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G21" t="s">
@@ -1986,15 +1988,15 @@
         <v>12</v>
       </c>
       <c r="D22">
-        <f>B22+C22</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E22" s="6">
-        <f>(B22/D22)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F22" s="6">
-        <f>C22/D22</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G22" t="s">
@@ -2012,15 +2014,15 @@
         <v>12</v>
       </c>
       <c r="D23">
-        <f>B23+C23</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E23" s="6">
-        <f>(B23/D23)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F23" s="6">
-        <f>C23/D23</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G23" t="s">
@@ -2038,15 +2040,15 @@
         <v>12</v>
       </c>
       <c r="D24">
-        <f>B24+C24</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E24" s="6">
-        <f>(B24/D24)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F24" s="6">
-        <f>C24/D24</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G24" t="s">
@@ -2064,15 +2066,15 @@
         <v>12</v>
       </c>
       <c r="D25">
-        <f>B25+C25</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E25" s="6">
-        <f>(B25/D25)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F25" s="6">
-        <f>C25/D25</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G25" t="s">
@@ -2090,15 +2092,15 @@
         <v>12</v>
       </c>
       <c r="D26">
-        <f>B26+C26</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E26" s="6">
-        <f>(B26/D26)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F26" s="6">
-        <f>C26/D26</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G26" t="s">
@@ -2116,15 +2118,15 @@
         <v>12</v>
       </c>
       <c r="D27">
-        <f>B27+C27</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E27" s="6">
-        <f>(B27/D27)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F27" s="6">
-        <f>C27/D27</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G27" t="s">
@@ -2142,15 +2144,15 @@
         <v>12</v>
       </c>
       <c r="D28">
-        <f>B28+C28</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E28" s="6">
-        <f>(B28/D28)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F28" s="6">
-        <f>C28/D28</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G28" t="s">
@@ -2168,15 +2170,15 @@
         <v>12</v>
       </c>
       <c r="D29">
-        <f>B29+C29</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E29" s="6">
-        <f>(B29/D29)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F29" s="6">
-        <f>C29/D29</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G29" t="s">
@@ -2194,15 +2196,15 @@
         <v>12</v>
       </c>
       <c r="D30">
-        <f>B30+C30</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E30" s="6">
-        <f>(B30/D30)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F30" s="6">
-        <f>C30/D30</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G30" t="s">
@@ -2220,15 +2222,15 @@
         <v>12</v>
       </c>
       <c r="D31">
-        <f>B31+C31</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E31" s="6">
-        <f>(B31/D31)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F31" s="6">
-        <f>C31/D31</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G31" t="s">
@@ -2246,15 +2248,15 @@
         <v>12</v>
       </c>
       <c r="D32">
-        <f>B32+C32</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E32" s="6">
-        <f>(B32/D32)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F32" s="6">
-        <f>C32/D32</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G32" t="s">
@@ -2272,15 +2274,15 @@
         <v>12</v>
       </c>
       <c r="D33">
-        <f>B33+C33</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E33" s="6">
-        <f>(B33/D33)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F33" s="6">
-        <f>C33/D33</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G33" t="s">
@@ -2298,15 +2300,15 @@
         <v>12</v>
       </c>
       <c r="D34">
-        <f>B34+C34</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E34" s="6">
-        <f>(B34/D34)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F34" s="6">
-        <f>C34/D34</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G34" t="s">
@@ -2324,15 +2326,15 @@
         <v>12</v>
       </c>
       <c r="D35">
-        <f>B35+C35</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E35" s="6">
-        <f>(B35/D35)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F35" s="6">
-        <f>C35/D35</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G35" t="s">
@@ -2350,15 +2352,15 @@
         <v>12</v>
       </c>
       <c r="D36">
-        <f>B36+C36</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E36" s="6">
-        <f>(B36/D36)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F36" s="6">
-        <f>C36/D36</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G36" t="s">
@@ -2376,15 +2378,15 @@
         <v>12</v>
       </c>
       <c r="D37">
-        <f>B37+C37</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E37" s="6">
-        <f>(B37/D37)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F37" s="6">
-        <f>C37/D37</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G37" t="s">
@@ -2402,15 +2404,15 @@
         <v>12</v>
       </c>
       <c r="D38">
-        <f>B38+C38</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E38" s="6">
-        <f>(B38/D38)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F38" s="6">
-        <f>C38/D38</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G38" t="s">
@@ -2428,15 +2430,15 @@
         <v>12</v>
       </c>
       <c r="D39">
-        <f>B39+C39</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E39" s="6">
-        <f>(B39/D39)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F39" s="6">
-        <f>C39/D39</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G39" t="s">
@@ -2454,15 +2456,15 @@
         <v>12</v>
       </c>
       <c r="D40">
-        <f>B40+C40</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E40" s="6">
-        <f>(B40/D40)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F40" s="6">
-        <f>C40/D40</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G40" t="s">
@@ -2480,15 +2482,15 @@
         <v>12</v>
       </c>
       <c r="D41">
-        <f>B41+C41</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E41" s="6">
-        <f>(B41/D41)</f>
+        <f t="shared" si="1"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="F41" s="6">
-        <f>C41/D41</f>
+        <f t="shared" si="2"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="G41" t="s">

--- a/server/files/RDF_SMS_Template.xlsx
+++ b/server/files/RDF_SMS_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25935" windowHeight="8580" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25935" windowHeight="8580" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="1" r:id="rId1"/>
@@ -1043,7 +1043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1420,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,22 +1462,22 @@
         <v>42370</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D41" si="0">B2+C2</f>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E2" s="6">
         <f t="shared" ref="E2:E41" si="1">(B2/D2)</f>
-        <v>0.65714285714285714</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="F2" s="6">
         <f t="shared" ref="F2:F41" si="2">C2/D2</f>
-        <v>0.34285714285714286</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="G2" t="s">
         <v>56</v>
@@ -1488,22 +1488,22 @@
         <v>42371</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>12</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.61290322580645162</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.38709677419354838</v>
       </c>
       <c r="G3" t="s">
         <v>57</v>
@@ -1514,22 +1514,22 @@
         <v>42372</v>
       </c>
       <c r="B4">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.46875</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.53125</v>
       </c>
       <c r="G4" t="s">
         <v>56</v>
@@ -1540,22 +1540,22 @@
         <v>42373</v>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.64864864864864868</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.35135135135135137</v>
       </c>
       <c r="G5" t="s">
         <v>57</v>
@@ -1566,22 +1566,22 @@
         <v>42374</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G6" t="s">
         <v>56</v>
@@ -1592,22 +1592,22 @@
         <v>42375</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="G7" t="s">
         <v>57</v>
@@ -1618,22 +1618,22 @@
         <v>42376</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="G8" t="s">
         <v>56</v>
@@ -1644,22 +1644,22 @@
         <v>42377</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G9" t="s">
         <v>57</v>
@@ -1670,22 +1670,22 @@
         <v>42378</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.5</v>
       </c>
       <c r="G10" t="s">
         <v>56</v>
@@ -1696,22 +1696,22 @@
         <v>42379</v>
       </c>
       <c r="B11">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>12</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.4</v>
       </c>
       <c r="G11" t="s">
         <v>57</v>
@@ -1722,10 +1722,10 @@
         <v>42380</v>
       </c>
       <c r="B12">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
@@ -1733,11 +1733,11 @@
       </c>
       <c r="E12" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.62857142857142856</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.37142857142857144</v>
       </c>
       <c r="G12" t="s">
         <v>56</v>
@@ -1748,22 +1748,22 @@
         <v>42381</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.47222222222222221</v>
       </c>
       <c r="G13" t="s">
         <v>57</v>
@@ -1774,22 +1774,22 @@
         <v>42382</v>
       </c>
       <c r="B14">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.54347826086956519</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.45652173913043476</v>
       </c>
       <c r="G14" t="s">
         <v>56</v>
@@ -1800,22 +1800,22 @@
         <v>42383</v>
       </c>
       <c r="B15">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>12</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.61290322580645162</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.38709677419354838</v>
       </c>
       <c r="G15" t="s">
         <v>57</v>
@@ -1826,22 +1826,22 @@
         <v>42384</v>
       </c>
       <c r="B16">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.51724137931034486</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.48275862068965519</v>
       </c>
       <c r="G16" t="s">
         <v>56</v>
@@ -1852,22 +1852,22 @@
         <v>42385</v>
       </c>
       <c r="B17">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="G17" t="s">
         <v>57</v>
@@ -1878,22 +1878,22 @@
         <v>42386</v>
       </c>
       <c r="B18">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.61224489795918369</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.38775510204081631</v>
       </c>
       <c r="G18" t="s">
         <v>56</v>
@@ -1904,22 +1904,22 @@
         <v>42387</v>
       </c>
       <c r="B19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="G19" t="s">
         <v>57</v>
@@ -1930,22 +1930,22 @@
         <v>42388</v>
       </c>
       <c r="B20">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="G20" t="s">
         <v>57</v>
@@ -1956,22 +1956,22 @@
         <v>42389</v>
       </c>
       <c r="B21">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>12</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.4</v>
       </c>
       <c r="G21" t="s">
         <v>57</v>
@@ -1982,22 +1982,22 @@
         <v>42390</v>
       </c>
       <c r="B22">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.48484848484848486</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.51515151515151514</v>
       </c>
       <c r="G22" t="s">
         <v>57</v>
@@ -2008,22 +2008,22 @@
         <v>42391</v>
       </c>
       <c r="B23">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.58064516129032262</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.41935483870967744</v>
       </c>
       <c r="G23" t="s">
         <v>57</v>
@@ -2034,22 +2034,22 @@
         <v>42392</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>12</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="G24" t="s">
         <v>57</v>
@@ -2060,22 +2060,22 @@
         <v>42393</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.55882352941176472</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.44117647058823528</v>
       </c>
       <c r="G25" t="s">
         <v>57</v>
@@ -2086,22 +2086,22 @@
         <v>42394</v>
       </c>
       <c r="B26">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.30555555555555558</v>
       </c>
       <c r="G26" t="s">
         <v>57</v>
@@ -2112,22 +2112,22 @@
         <v>42395</v>
       </c>
       <c r="B27">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E27" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.32142857142857145</v>
       </c>
       <c r="G27" t="s">
         <v>57</v>
@@ -2138,22 +2138,22 @@
         <v>42396</v>
       </c>
       <c r="B28">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="G28" t="s">
         <v>57</v>
@@ -2164,22 +2164,22 @@
         <v>42397</v>
       </c>
       <c r="B29">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C29">
         <v>12</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G29" t="s">
         <v>57</v>
@@ -2190,22 +2190,22 @@
         <v>42398</v>
       </c>
       <c r="B30">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.69767441860465118</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.30232558139534882</v>
       </c>
       <c r="G30" t="s">
         <v>57</v>
@@ -2216,22 +2216,22 @@
         <v>42399</v>
       </c>
       <c r="B31">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E31" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.58536585365853655</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.41463414634146339</v>
       </c>
       <c r="G31" t="s">
         <v>57</v>
@@ -2242,22 +2242,22 @@
         <v>42400</v>
       </c>
       <c r="B32">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E32" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F32" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.42</v>
       </c>
       <c r="G32" t="s">
         <v>57</v>
@@ -2268,22 +2268,22 @@
         <v>42401</v>
       </c>
       <c r="B33">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C33">
         <v>12</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E33" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="F33" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.4</v>
       </c>
       <c r="G33" t="s">
         <v>57</v>
@@ -2294,22 +2294,22 @@
         <v>42402</v>
       </c>
       <c r="B34">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C34">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E34" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="G34" t="s">
         <v>57</v>
@@ -2320,22 +2320,22 @@
         <v>42403</v>
       </c>
       <c r="B35">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C35">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E35" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="F35" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.5</v>
       </c>
       <c r="G35" t="s">
         <v>57</v>
@@ -2346,22 +2346,22 @@
         <v>42404</v>
       </c>
       <c r="B36">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E36" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.53658536585365857</v>
       </c>
       <c r="F36" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.46341463414634149</v>
       </c>
       <c r="G36" t="s">
         <v>57</v>
@@ -2372,22 +2372,22 @@
         <v>42405</v>
       </c>
       <c r="B37">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C37">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E37" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="F37" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="G37" t="s">
         <v>57</v>
@@ -2401,19 +2401,19 @@
         <v>23</v>
       </c>
       <c r="C38">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E38" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.56097560975609762</v>
       </c>
       <c r="F38" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.43902439024390244</v>
       </c>
       <c r="G38" t="s">
         <v>57</v>
@@ -2424,22 +2424,22 @@
         <v>42407</v>
       </c>
       <c r="B39">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E39" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.53658536585365857</v>
       </c>
       <c r="F39" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.46341463414634149</v>
       </c>
       <c r="G39" t="s">
         <v>57</v>
@@ -2450,22 +2450,22 @@
         <v>42408</v>
       </c>
       <c r="B40">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C40">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E40" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="F40" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.5</v>
       </c>
       <c r="G40" t="s">
         <v>57</v>
@@ -2476,22 +2476,22 @@
         <v>42409</v>
       </c>
       <c r="B41">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C41">
         <v>12</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E41" s="6">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="F41" s="6">
         <f t="shared" si="2"/>
-        <v>0.34285714285714286</v>
+        <v>0.375</v>
       </c>
       <c r="G41" t="s">
         <v>57</v>
